--- a/data/Transactions.xlsx
+++ b/data/Transactions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\richjo\FAFL\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\richjo\FAFL\fantasyawards\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Team</t>
   </si>
@@ -90,6 +90,33 @@
   </si>
   <si>
     <t>Makeup from Mary Queen of Scots</t>
+  </si>
+  <si>
+    <t>Wildlife</t>
+  </si>
+  <si>
+    <t>Joi McMillan</t>
+  </si>
+  <si>
+    <t>Stan &amp; Ollie Makeup</t>
+  </si>
+  <si>
+    <t>Crime + Punishment</t>
+  </si>
+  <si>
+    <t>Ally and Chris Singh</t>
+  </si>
+  <si>
+    <t>On Her Shoulders</t>
+  </si>
+  <si>
+    <t>Widows</t>
+  </si>
+  <si>
+    <t>Of Fathers and Sons</t>
+  </si>
+  <si>
+    <t>Lakeith Stanfield</t>
   </si>
 </sst>
 </file>
@@ -408,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +446,7 @@
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -438,30 +465,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1">
-        <v>43398</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
-        <v>43396</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -469,68 +496,138 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
-        <v>43394</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
-        <v>43391</v>
+        <v>43420</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>43391</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>43391</v>
+        <v>43398</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D13" s="1">
         <v>43390</v>
       </c>
     </row>
